--- a/va_facility_data_2025-02-20/Sandusky VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sandusky%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sandusky VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sandusky%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R39cc1b377d4f453c99dd9d47742e1467"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9e9aa236f9834ab4b7c8fa6b3c1eea64"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5f146cc686cc4d71a50ba7db5ba290ef"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9d2cbba173954fab8c248473ef70c35e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5f6f0b7dd8b142d2ae645da908bb6630"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcaf9a89b9b464e4c928b1658f2f8da53"/>
   </x:sheets>
 </x:workbook>
 </file>
